--- a/Course_project/Testing_plan.xlsx
+++ b/Course_project/Testing_plan.xlsx
@@ -573,95 +573,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,11 +958,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1065,28 +1065,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1097,376 +1097,371 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="31" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="31"/>
+      <c r="D34" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="33"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="16"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="16"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
@@ -1483,6 +1478,11 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
